--- a/biology/Zoologie/Dasypodainae/Dasypodainae.xlsx
+++ b/biology/Zoologie/Dasypodainae/Dasypodainae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dasypodainae sont une sous-famille d'insectes hyménoptères aculéates de la famille des Melittidae ou des Dasypodaidae selon les classifications.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 mai 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 mai 2019) :
 genre Dasypoda Latreille, 1802
 genre Eremaphanta Popov, 1940
 genre Hesperapis Cockerell, 1898</t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Max Sagemehl, « Verzeichniss der in Est-, Liv- und Curland bisher gefunden Bienen », Archiv für die Naturkunde Liv-, Ehst- und Kurlands, Zweite Serie, Biologische Naturkunde, vol. 8,‎ 1882, p. 451-468.
 </t>
